--- a/£ADF.xlsx
+++ b/£ADF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30295F7-0AC8-46BA-8F85-B35058A2A5FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0B253-AA5B-4CFF-8F09-CE6ECCD4A8F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{74984A8D-9302-423C-A92F-ECB08F721AEA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{74984A8D-9302-423C-A92F-ECB08F721AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -653,16 +653,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,31 +695,7 @@
     <xf numFmtId="166" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4345E0DF-DFDC-4B24-B2CF-D8A5AE4B1DD9}">
   <dimension ref="B2:X38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="47">
-        <v>0.63500000000000001</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D6" s="43"/>
       <c r="F6" s="48" t="s">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C8" s="12">
         <f>C6*C7</f>
-        <v>48.26</v>
+        <v>44.459999999999994</v>
       </c>
       <c r="D8" s="43"/>
       <c r="F8" s="9" t="s">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C12" s="13">
         <f>C8-C11</f>
-        <v>43.51</v>
+        <v>39.709999999999994</v>
       </c>
       <c r="D12" s="44"/>
       <c r="F12" s="22" t="s">
@@ -1476,10 +1476,10 @@
       <c r="B16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="57"/>
       <c r="F16" s="27"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -1494,10 +1494,10 @@
       <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="52"/>
+      <c r="D17" s="57"/>
       <c r="F17" s="21" t="s">
         <v>24</v>
       </c>
@@ -1514,10 +1514,10 @@
       <c r="B18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="62"/>
       <c r="F18" s="22" t="s">
         <v>25</v>
       </c>
@@ -1565,10 +1565,10 @@
       <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="57"/>
       <c r="F21" s="24" t="s">
         <v>29</v>
       </c>
@@ -1585,10 +1585,10 @@
       <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="56">
         <v>1992</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="57"/>
       <c r="F22" s="25" t="s">
         <v>30</v>
       </c>
@@ -1605,10 +1605,10 @@
       <c r="B23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="56">
         <v>2022</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="57"/>
       <c r="F23" s="25"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -1623,10 +1623,10 @@
       <c r="B24" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="52"/>
       <c r="F24" s="25" t="s">
         <v>31</v>
       </c>
@@ -1671,11 +1671,11 @@
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="F27" s="23" t="s">
         <v>35</v>
       </c>
@@ -1689,11 +1689,11 @@
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
       <c r="F28" s="23" t="s">
         <v>33</v>
       </c>
@@ -1707,11 +1707,11 @@
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1723,32 +1723,32 @@
       <c r="N29" s="11"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="48" t="s">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C36" s="53">
         <f>C12/'Financial Model'!K15</f>
-        <v>33.340996168582443</v>
+        <v>30.429118773946421</v>
       </c>
       <c r="D36" s="54"/>
     </row>
@@ -1776,11 +1776,22 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="19"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="P6:X6"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="B35:D35"/>
@@ -1795,17 +1806,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F6:N6"/>
     <mergeCell ref="F10:N10"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q7" r:id="rId1" xr:uid="{0EFBBB35-DF5F-4723-8193-1B85C184F06E}"/>
@@ -1820,11 +1820,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E057D7-3032-4A4C-9237-730C082B7890}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
